--- a/biology/Zoologie/Cyprininae/Cyprininae.xlsx
+++ b/biology/Zoologie/Cyprininae/Cyprininae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cyprininae sont l'une des sous-familles de poissons cyprinidés. Il contient trois genres dans sa définition la plus stricte, mais beaucoup plus sont inclus en fonction de l'autorité qui est choisie, et encore davantage si les Labeobarbinae ne sont plus considérés comme un groupement. 
 </t>
@@ -511,7 +523,9 @@
           <t>Genres reconnus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Arabibarbus (3 espèces)
 Barboides (2 espèces)
